--- a/data_processing/2024/OES/data/bi_lorentzian.xlsx
+++ b/data_processing/2024/OES/data/bi_lorentzian.xlsx
@@ -2103,31 +2103,31 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1999674882679.167</v>
+        <v>1994297413776.529</v>
       </c>
       <c r="D40" t="n">
-        <v>1342580831557.772</v>
+        <v>1335537502156.381</v>
       </c>
       <c r="E40" t="n">
-        <v>2656768933800.561</v>
+        <v>2653057325396.677</v>
       </c>
       <c r="F40" t="n">
-        <v>821.1218233930078</v>
+        <v>821.1218380690747</v>
       </c>
       <c r="G40" t="n">
-        <v>821.102097421761</v>
+        <v>821.1020337240558</v>
       </c>
       <c r="H40" t="n">
-        <v>821.1415493642547</v>
+        <v>821.1416424140936</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1120030989004775</v>
+        <v>0.1118021995948196</v>
       </c>
       <c r="J40" t="n">
-        <v>0.06205322066547148</v>
+        <v>0.06168228748556113</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1619529771354836</v>
+        <v>0.1619221117040781</v>
       </c>
       <c r="L40" t="n">
         <v>4890</v>
